--- a/Code/Results/Cases/Case_7_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_63/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.02914686847224</v>
+        <v>13.21133806495693</v>
       </c>
       <c r="C2">
-        <v>9.93919566402985</v>
+        <v>6.069028392806606</v>
       </c>
       <c r="D2">
-        <v>10.99003752271587</v>
+        <v>11.93423320984297</v>
       </c>
       <c r="E2">
-        <v>7.068260931817385</v>
+        <v>7.525908667407739</v>
       </c>
       <c r="F2">
-        <v>64.78272214364917</v>
+        <v>66.54484543506834</v>
       </c>
       <c r="G2">
-        <v>2.122577198699672</v>
+        <v>2.168738378134143</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.47741970937645</v>
+        <v>9.65567376744448</v>
       </c>
       <c r="L2">
-        <v>6.209255472750722</v>
+        <v>6.277422716425722</v>
       </c>
       <c r="M2">
-        <v>11.59584726879537</v>
+        <v>10.20239461651607</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.94566807100358</v>
+        <v>12.58686675067125</v>
       </c>
       <c r="C3">
-        <v>9.293050282294523</v>
+        <v>5.823093211739003</v>
       </c>
       <c r="D3">
-        <v>10.59237751071679</v>
+        <v>11.54455102080987</v>
       </c>
       <c r="E3">
-        <v>7.013006583417917</v>
+        <v>7.440462232815234</v>
       </c>
       <c r="F3">
-        <v>61.32983865343424</v>
+        <v>63.32345088077359</v>
       </c>
       <c r="G3">
-        <v>2.135971451036491</v>
+        <v>2.179606652930024</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.38895588890361</v>
+        <v>9.130663250105057</v>
       </c>
       <c r="L3">
-        <v>6.14511775385582</v>
+        <v>6.217001728491508</v>
       </c>
       <c r="M3">
-        <v>11.23867776174323</v>
+        <v>10.02543676127476</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.27026970262731</v>
+        <v>12.20461005736048</v>
       </c>
       <c r="C4">
-        <v>8.882110980433453</v>
+        <v>5.66882743520497</v>
       </c>
       <c r="D4">
-        <v>10.34549102853656</v>
+        <v>11.30091816901437</v>
       </c>
       <c r="E4">
-        <v>6.979799566186284</v>
+        <v>7.389517530449699</v>
       </c>
       <c r="F4">
-        <v>59.1592882445545</v>
+        <v>61.29314563967367</v>
       </c>
       <c r="G4">
-        <v>2.144334037817964</v>
+        <v>2.186420204226634</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.69139533233274</v>
+        <v>8.877690229231137</v>
       </c>
       <c r="L4">
-        <v>6.109242059232008</v>
+        <v>6.183054697610955</v>
       </c>
       <c r="M4">
-        <v>11.02684645587186</v>
+        <v>9.924343619284084</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.99270634297241</v>
+        <v>12.04933346490405</v>
       </c>
       <c r="C5">
-        <v>8.710952614410227</v>
+        <v>5.605094341898597</v>
       </c>
       <c r="D5">
-        <v>10.24419875579232</v>
+        <v>11.20055450890966</v>
       </c>
       <c r="E5">
-        <v>6.966415512851812</v>
+        <v>7.369128954358149</v>
       </c>
       <c r="F5">
-        <v>58.26241230013742</v>
+        <v>60.45310634783563</v>
       </c>
       <c r="G5">
-        <v>2.147781146351325</v>
+        <v>2.18923482193971</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.39958321144964</v>
+        <v>8.77589503407833</v>
       </c>
       <c r="L5">
-        <v>6.095477618363976</v>
+        <v>6.169996891608537</v>
       </c>
       <c r="M5">
-        <v>10.94243456060773</v>
+        <v>9.885029009920551</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.94648427947933</v>
+        <v>12.02358641639827</v>
       </c>
       <c r="C6">
-        <v>8.682305338272279</v>
+        <v>5.594457760495047</v>
       </c>
       <c r="D6">
-        <v>10.22733821028855</v>
+        <v>11.18382455963848</v>
       </c>
       <c r="E6">
-        <v>6.964201147737578</v>
+        <v>7.365765615168847</v>
       </c>
       <c r="F6">
-        <v>58.11275366649563</v>
+        <v>60.31287024153725</v>
       </c>
       <c r="G6">
-        <v>2.148356031592856</v>
+        <v>2.189704560666385</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.35066662851725</v>
+        <v>8.75907423187609</v>
       </c>
       <c r="L6">
-        <v>6.093242946995522</v>
+        <v>6.167875027654024</v>
       </c>
       <c r="M6">
-        <v>10.92853451783874</v>
+        <v>9.878613891712313</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.26653548233849</v>
+        <v>12.20251364281315</v>
       </c>
       <c r="C7">
-        <v>8.879817799220513</v>
+        <v>5.667971484464295</v>
       </c>
       <c r="D7">
-        <v>10.34412772466868</v>
+        <v>11.29956897887471</v>
       </c>
       <c r="E7">
-        <v>6.979618505565968</v>
+        <v>7.389241070654684</v>
       </c>
       <c r="F7">
-        <v>59.14724212607384</v>
+        <v>61.28186713353931</v>
       </c>
       <c r="G7">
-        <v>2.144380362057356</v>
+        <v>2.186458005653963</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.68749066981616</v>
+        <v>8.87631196370319</v>
       </c>
       <c r="L7">
-        <v>6.109052998412244</v>
+        <v>6.182875475908821</v>
       </c>
       <c r="M7">
-        <v>11.02570026216771</v>
+        <v>9.923805816847581</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.65776981563474</v>
+        <v>12.99588718104822</v>
       </c>
       <c r="C8">
-        <v>9.719269938880219</v>
+        <v>5.984875168717934</v>
       </c>
       <c r="D8">
-        <v>10.85348483101662</v>
+        <v>11.8007839381745</v>
       </c>
       <c r="E8">
-        <v>7.049039066951375</v>
+        <v>7.496124774638621</v>
       </c>
       <c r="F8">
-        <v>63.60278048693397</v>
+        <v>65.44522463346372</v>
       </c>
       <c r="G8">
-        <v>2.127169629671567</v>
+        <v>2.17245834093413</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.10805961154132</v>
+        <v>9.411744700736282</v>
       </c>
       <c r="L8">
-        <v>6.186397155743994</v>
+        <v>6.255925357556145</v>
       </c>
       <c r="M8">
-        <v>11.47116092479899</v>
+        <v>10.13979934938541</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.53596256266537</v>
+        <v>14.55410581185007</v>
       </c>
       <c r="C9">
-        <v>11.25967145825497</v>
+        <v>6.58305276374506</v>
       </c>
       <c r="D9">
-        <v>11.83160848050765</v>
+        <v>12.74886925136492</v>
       </c>
       <c r="E9">
-        <v>7.192568849741732</v>
+        <v>7.718317252399828</v>
       </c>
       <c r="F9">
-        <v>71.93561491755446</v>
+        <v>73.18027317641608</v>
       </c>
       <c r="G9">
-        <v>2.094290285013115</v>
+        <v>2.145982576747568</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.67202117105553</v>
+        <v>11.09909042025976</v>
       </c>
       <c r="L9">
-        <v>6.367146599383109</v>
+        <v>6.424956299874685</v>
       </c>
       <c r="M9">
-        <v>12.40323207640025</v>
+        <v>10.62420785925931</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.66802969156382</v>
+        <v>15.69431256059725</v>
       </c>
       <c r="C10">
-        <v>12.3386963169404</v>
+        <v>7.012654227071262</v>
       </c>
       <c r="D10">
-        <v>12.54032319023526</v>
+        <v>13.42497315401914</v>
       </c>
       <c r="E10">
-        <v>7.305272620061555</v>
+        <v>7.890122960691858</v>
       </c>
       <c r="F10">
-        <v>77.82150057583004</v>
+        <v>78.59390149490608</v>
       </c>
       <c r="G10">
-        <v>2.070299045828382</v>
+        <v>2.126914438821959</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.43706819194655</v>
+        <v>12.25133053650971</v>
       </c>
       <c r="L10">
-        <v>6.519632854170504</v>
+        <v>6.56600967252302</v>
       </c>
       <c r="M10">
-        <v>13.31548278988871</v>
+        <v>11.01857862271933</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.61509678304398</v>
+        <v>16.29582260588107</v>
       </c>
       <c r="C11">
-        <v>12.82143623503391</v>
+        <v>7.207119335279661</v>
       </c>
       <c r="D11">
-        <v>12.86167006165345</v>
+        <v>13.72856306223781</v>
       </c>
       <c r="E11">
-        <v>7.358869668971585</v>
+        <v>7.970383605035873</v>
       </c>
       <c r="F11">
-        <v>80.45469024136018</v>
+        <v>80.99965195717603</v>
       </c>
       <c r="G11">
-        <v>2.059322402381687</v>
+        <v>2.11826865848693</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.21868940894541</v>
+        <v>12.75861728954553</v>
       </c>
       <c r="L11">
-        <v>6.593793128431654</v>
+        <v>6.634126120307136</v>
       </c>
       <c r="M11">
-        <v>13.8616759017726</v>
+        <v>11.20674613913701</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.97089638374586</v>
+        <v>16.53172560896627</v>
       </c>
       <c r="C12">
-        <v>13.00340974076023</v>
+        <v>7.280736491715708</v>
       </c>
       <c r="D12">
-        <v>12.98333422726473</v>
+        <v>13.84301146462753</v>
       </c>
       <c r="E12">
-        <v>7.379576687163245</v>
+        <v>8.001103403708729</v>
       </c>
       <c r="F12">
-        <v>81.44633017769141</v>
+        <v>81.90276899764892</v>
       </c>
       <c r="G12">
-        <v>2.055146925987485</v>
+        <v>2.114993585458019</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.5120470313358</v>
+        <v>12.94848565801908</v>
       </c>
       <c r="L12">
-        <v>6.622616434301354</v>
+        <v>6.660515278597985</v>
       </c>
       <c r="M12">
-        <v>14.06634499216057</v>
+        <v>11.27930536667567</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.89438644093807</v>
+        <v>16.48102020057165</v>
       </c>
       <c r="C13">
-        <v>12.96424934275238</v>
+        <v>7.264880680844374</v>
       </c>
       <c r="D13">
-        <v>12.95713025301308</v>
+        <v>13.81838473413646</v>
       </c>
       <c r="E13">
-        <v>7.37509741495926</v>
+        <v>7.994472376924238</v>
       </c>
       <c r="F13">
-        <v>81.23298990597384</v>
+        <v>81.70861101221885</v>
       </c>
       <c r="G13">
-        <v>2.056047202827419</v>
+        <v>2.115699070183406</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.44897620039284</v>
+        <v>12.90768990336024</v>
       </c>
       <c r="L13">
-        <v>6.61637497379964</v>
+        <v>6.654804969339803</v>
       </c>
       <c r="M13">
-        <v>14.02235713408236</v>
+        <v>11.263619596755</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.64442251770933</v>
+        <v>16.31527606951524</v>
       </c>
       <c r="C14">
-        <v>12.83642177687787</v>
+        <v>7.213175586090763</v>
       </c>
       <c r="D14">
-        <v>12.87167903926171</v>
+        <v>13.73798872167805</v>
       </c>
       <c r="E14">
-        <v>7.360564523957428</v>
+        <v>7.972904236971255</v>
       </c>
       <c r="F14">
-        <v>80.53637704794481</v>
+        <v>81.07410777329359</v>
       </c>
       <c r="G14">
-        <v>2.058979323639064</v>
+        <v>2.11799927056164</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.24287395739037</v>
+        <v>12.77428135772677</v>
       </c>
       <c r="L14">
-        <v>6.596149273744153</v>
+        <v>6.63628508038598</v>
       </c>
       <c r="M14">
-        <v>13.87855574696656</v>
+        <v>11.21268919494409</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.49095825421748</v>
+        <v>16.21345535820449</v>
       </c>
       <c r="C15">
-        <v>12.75802672918302</v>
+        <v>7.181505534886423</v>
       </c>
       <c r="D15">
-        <v>12.81933914933028</v>
+        <v>13.68867883773438</v>
       </c>
       <c r="E15">
-        <v>7.351718732818481</v>
+        <v>7.959736483699936</v>
       </c>
       <c r="F15">
-        <v>80.10899740098188</v>
+        <v>80.68444041561598</v>
       </c>
       <c r="G15">
-        <v>2.060772556346161</v>
+        <v>2.119407900260255</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.11630275151529</v>
+        <v>12.69228058529226</v>
       </c>
       <c r="L15">
-        <v>6.583858548794715</v>
+        <v>6.625019458304822</v>
       </c>
       <c r="M15">
-        <v>13.79020059376109</v>
+        <v>11.1816642212935</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.60571349048282</v>
+        <v>15.66047701942247</v>
       </c>
       <c r="C16">
-        <v>12.30701229835802</v>
+        <v>6.999935602327118</v>
       </c>
       <c r="D16">
-        <v>12.5193114130837</v>
+        <v>13.40505733681712</v>
       </c>
       <c r="E16">
-        <v>7.301822975302404</v>
+        <v>7.8849220633683</v>
       </c>
       <c r="F16">
-        <v>77.64859252260415</v>
+        <v>78.43555640131338</v>
       </c>
       <c r="G16">
-        <v>2.07101432752407</v>
+        <v>2.127479604274326</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.38559452020507</v>
+        <v>12.21785485401873</v>
       </c>
       <c r="L16">
-        <v>6.514886929166043</v>
+        <v>6.561639804140558</v>
       </c>
       <c r="M16">
-        <v>13.27946916466212</v>
+        <v>11.00646128965788</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.05708827795549</v>
+        <v>15.36380049076682</v>
       </c>
       <c r="C17">
-        <v>12.02847262840092</v>
+        <v>6.888378679393028</v>
       </c>
       <c r="D17">
-        <v>12.33506508321141</v>
+        <v>13.23008192646772</v>
       </c>
       <c r="E17">
-        <v>7.27185979443873</v>
+        <v>7.839580861747601</v>
       </c>
       <c r="F17">
-        <v>76.12840128975419</v>
+        <v>77.04152064630966</v>
       </c>
       <c r="G17">
-        <v>2.077274727716678</v>
+        <v>2.132435125104255</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.93216149906934</v>
+        <v>11.92262065769869</v>
       </c>
       <c r="L17">
-        <v>6.47383643494432</v>
+        <v>6.52378818030593</v>
       </c>
       <c r="M17">
-        <v>12.96199161142525</v>
+        <v>10.90125257141439</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.73935338703299</v>
+        <v>15.19302965335864</v>
       </c>
       <c r="C18">
-        <v>11.86747679582348</v>
+        <v>6.824115537756703</v>
       </c>
       <c r="D18">
-        <v>12.22898287560328</v>
+        <v>13.12906227798891</v>
       </c>
       <c r="E18">
-        <v>7.254839554921276</v>
+        <v>7.813698289753377</v>
       </c>
       <c r="F18">
-        <v>75.24978613540172</v>
+        <v>76.23432180701353</v>
       </c>
       <c r="G18">
-        <v>2.080870297821019</v>
+        <v>2.135288431431142</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.66932316299582</v>
+        <v>11.75120851928104</v>
       </c>
       <c r="L18">
-        <v>6.450672938582128</v>
+        <v>6.502386962868457</v>
       </c>
       <c r="M18">
-        <v>12.80358126380917</v>
+        <v>10.84156117679483</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.63138726658014</v>
+        <v>15.13518705464326</v>
       </c>
       <c r="C19">
-        <v>11.81282187078552</v>
+        <v>6.802336971851257</v>
       </c>
       <c r="D19">
-        <v>12.19304328043324</v>
+        <v>13.09479232657999</v>
       </c>
       <c r="E19">
-        <v>7.249111405246753</v>
+        <v>7.804967978960406</v>
       </c>
       <c r="F19">
-        <v>74.95155128538516</v>
+        <v>75.96008642279037</v>
       </c>
       <c r="G19">
-        <v>2.082087067977391</v>
+        <v>2.136255178268549</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.57996876796298</v>
+        <v>11.69289070603923</v>
       </c>
       <c r="L19">
-        <v>6.442905648660065</v>
+        <v>6.495203676646076</v>
       </c>
       <c r="M19">
-        <v>12.76694716924868</v>
+        <v>10.82149071840824</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.11571307090055</v>
+        <v>15.39539563558113</v>
       </c>
       <c r="C20">
-        <v>12.05820287256284</v>
+        <v>6.900263521144004</v>
       </c>
       <c r="D20">
-        <v>12.35468884353708</v>
+        <v>13.24874716836333</v>
       </c>
       <c r="E20">
-        <v>7.275026790399341</v>
+        <v>7.844387013812266</v>
       </c>
       <c r="F20">
-        <v>76.29066169894861</v>
+        <v>77.19047391921134</v>
       </c>
       <c r="G20">
-        <v>2.076608906328616</v>
+        <v>2.131907324160817</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.98063795024068</v>
+        <v>11.95421321862699</v>
       </c>
       <c r="L20">
-        <v>6.478159657142152</v>
+        <v>6.527779071023761</v>
       </c>
       <c r="M20">
-        <v>12.9959529449008</v>
+        <v>10.91236688050793</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.71791584475361</v>
+        <v>16.36402082409315</v>
       </c>
       <c r="C21">
-        <v>12.87398734838803</v>
+        <v>7.228362223411589</v>
       </c>
       <c r="D21">
-        <v>12.89677754900675</v>
+        <v>13.76161639871963</v>
       </c>
       <c r="E21">
-        <v>7.364821354408813</v>
+        <v>7.979230237789498</v>
       </c>
       <c r="F21">
-        <v>80.74112972524519</v>
+        <v>81.26068769546498</v>
       </c>
       <c r="G21">
-        <v>2.058118687139909</v>
+        <v>2.117323720694279</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.30347857064567</v>
+        <v>12.81352552008045</v>
       </c>
       <c r="L21">
-        <v>6.602069503258284</v>
+        <v>6.641708439890436</v>
       </c>
       <c r="M21">
-        <v>13.92084996315408</v>
+        <v>11.22761287903973</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.7488099505597</v>
+        <v>17.04652145112382</v>
       </c>
       <c r="C22">
-        <v>13.40251835103303</v>
+        <v>7.442729742563984</v>
       </c>
       <c r="D22">
-        <v>13.25101761215344</v>
+        <v>14.09384710720622</v>
       </c>
       <c r="E22">
-        <v>7.425949029864734</v>
+        <v>8.069277750595209</v>
       </c>
       <c r="F22">
-        <v>83.6183794119853</v>
+        <v>83.87507842148521</v>
       </c>
       <c r="G22">
-        <v>2.045918482756961</v>
+        <v>2.107783130858371</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.15298884725253</v>
+        <v>13.3622465720875</v>
       </c>
       <c r="L22">
-        <v>6.687398490628638</v>
+        <v>6.719651251647389</v>
       </c>
       <c r="M22">
-        <v>14.51288174881345</v>
+        <v>11.44127685803944</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.1999138234053</v>
+        <v>16.68342603711845</v>
       </c>
       <c r="C23">
-        <v>13.12072671000264</v>
+        <v>7.328280396024864</v>
       </c>
       <c r="D23">
-        <v>13.06190493295189</v>
+        <v>13.91677640257409</v>
       </c>
       <c r="E23">
-        <v>7.393071564335492</v>
+        <v>8.021032859887352</v>
       </c>
       <c r="F23">
-        <v>82.08524111755455</v>
+        <v>82.48377372589997</v>
       </c>
       <c r="G23">
-        <v>2.052444257946372</v>
+        <v>2.112877880613722</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.70080055959009</v>
+        <v>13.07049171910442</v>
       </c>
       <c r="L23">
-        <v>6.641439606957709</v>
+        <v>6.67772298143897</v>
       </c>
       <c r="M23">
-        <v>14.19793826674548</v>
+        <v>11.32652404957174</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.08921606990649</v>
+        <v>15.38111211881035</v>
       </c>
       <c r="C24">
-        <v>12.04476453135955</v>
+        <v>6.894890790079179</v>
       </c>
       <c r="D24">
-        <v>12.34581743819413</v>
+        <v>13.24030993706699</v>
       </c>
       <c r="E24">
-        <v>7.27359435543762</v>
+        <v>7.842213578952626</v>
       </c>
       <c r="F24">
-        <v>76.21731827388308</v>
+        <v>77.12315007236796</v>
       </c>
       <c r="G24">
-        <v>2.07690993472993</v>
+        <v>2.13214592915535</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.95872848685977</v>
+        <v>11.93993546313217</v>
       </c>
       <c r="L24">
-        <v>6.476203771019942</v>
+        <v>6.525973669405381</v>
       </c>
       <c r="M24">
-        <v>12.9806043348009</v>
+        <v>10.90733962979947</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.72810046911721</v>
+        <v>14.13310066005728</v>
       </c>
       <c r="C25">
-        <v>10.85318402053726</v>
+        <v>6.423316632461569</v>
       </c>
       <c r="D25">
-        <v>11.56901842268507</v>
+        <v>12.49608226229568</v>
       </c>
       <c r="E25">
-        <v>7.152689879281652</v>
+        <v>7.656776676329505</v>
       </c>
       <c r="F25">
-        <v>69.72439021583257</v>
+        <v>71.13502619855046</v>
       </c>
       <c r="G25">
-        <v>2.103126491869307</v>
+        <v>2.153060831189439</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.0005787551462</v>
+        <v>10.6586247661663</v>
       </c>
       <c r="L25">
-        <v>6.314946589116549</v>
+        <v>6.376355246226291</v>
       </c>
       <c r="M25">
-        <v>12.1448522262309</v>
+        <v>10.48651787204829</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.21133806495693</v>
+        <v>12.63843268455679</v>
       </c>
       <c r="C2">
-        <v>6.069028392806606</v>
+        <v>7.295323676361192</v>
       </c>
       <c r="D2">
-        <v>11.93423320984297</v>
+        <v>5.380704861654295</v>
       </c>
       <c r="E2">
-        <v>7.525908667407739</v>
+        <v>7.341433295666475</v>
       </c>
       <c r="F2">
-        <v>66.54484543506834</v>
+        <v>25.9468173385768</v>
       </c>
       <c r="G2">
-        <v>2.168738378134143</v>
+        <v>36.41563824537115</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>3.173711455977975</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.24317368304938</v>
       </c>
       <c r="K2">
-        <v>9.65567376744448</v>
+        <v>20.32266781797283</v>
       </c>
       <c r="L2">
-        <v>6.277422716425722</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.20239461651607</v>
+        <v>11.02011897094669</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.455687066506682</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.479635336600161</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.58686675067125</v>
+        <v>11.80063146084773</v>
       </c>
       <c r="C3">
-        <v>5.823093211739003</v>
+        <v>7.013370366811444</v>
       </c>
       <c r="D3">
-        <v>11.54455102080987</v>
+        <v>5.3237869900537</v>
       </c>
       <c r="E3">
-        <v>7.440462232815234</v>
+        <v>7.148578568004492</v>
       </c>
       <c r="F3">
-        <v>63.32345088077359</v>
+        <v>25.3905698025967</v>
       </c>
       <c r="G3">
-        <v>2.179606652930024</v>
+        <v>35.60800372421125</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>3.416204797208795</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.18132694240045</v>
       </c>
       <c r="K3">
-        <v>9.130663250105057</v>
+        <v>20.19929287493463</v>
       </c>
       <c r="L3">
-        <v>6.217001728491508</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.02543676127476</v>
+        <v>10.3884281390284</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.249175916334119</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.097444184995931</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.20461005736048</v>
+        <v>11.25571022899905</v>
       </c>
       <c r="C4">
-        <v>5.66882743520497</v>
+        <v>6.833895328170948</v>
       </c>
       <c r="D4">
-        <v>11.30091816901437</v>
+        <v>5.287562081665902</v>
       </c>
       <c r="E4">
-        <v>7.389517530449699</v>
+        <v>7.026671076490105</v>
       </c>
       <c r="F4">
-        <v>61.29314563967367</v>
+        <v>25.05732545588602</v>
       </c>
       <c r="G4">
-        <v>2.186420204226634</v>
+        <v>35.1241047817764</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>3.570036238895806</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.14819874767342</v>
       </c>
       <c r="K4">
-        <v>8.877690229231137</v>
+        <v>20.13143802120734</v>
       </c>
       <c r="L4">
-        <v>6.183054697610955</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.924343619284084</v>
+        <v>9.980323318801339</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.118535635322949</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.855608678432818</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.04933346490405</v>
+        <v>11.0259429445347</v>
       </c>
       <c r="C5">
-        <v>5.605094341898597</v>
+        <v>6.759187958965263</v>
       </c>
       <c r="D5">
-        <v>11.20055450890966</v>
+        <v>5.272483882933409</v>
       </c>
       <c r="E5">
-        <v>7.369128954358149</v>
+        <v>6.976119988772584</v>
       </c>
       <c r="F5">
-        <v>60.45310634783563</v>
+        <v>24.9237152072558</v>
       </c>
       <c r="G5">
-        <v>2.18923482193971</v>
+        <v>34.93006718977959</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.633989367218151</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.13589080564432</v>
       </c>
       <c r="K5">
-        <v>8.77589503407833</v>
+        <v>20.10572894477154</v>
       </c>
       <c r="L5">
-        <v>6.169996891608537</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.885029009920551</v>
+        <v>9.808968639334068</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.064369794788522</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.755367860200627</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.02358641639827</v>
+        <v>10.98732374160244</v>
       </c>
       <c r="C6">
-        <v>5.594457760495047</v>
+        <v>6.746688987032552</v>
       </c>
       <c r="D6">
-        <v>11.18382455963848</v>
+        <v>5.269961204839797</v>
       </c>
       <c r="E6">
-        <v>7.365765615168847</v>
+        <v>6.967673511585135</v>
       </c>
       <c r="F6">
-        <v>60.31287024153725</v>
+        <v>24.90166453127302</v>
       </c>
       <c r="G6">
-        <v>2.189704560666385</v>
+        <v>34.89804192970975</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.644685842407958</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.13391828710796</v>
       </c>
       <c r="K6">
-        <v>8.75907423187609</v>
+        <v>20.10157597174556</v>
       </c>
       <c r="L6">
-        <v>6.167875027654024</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.878613891712313</v>
+        <v>9.780211923281302</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.055320665312657</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.738624374026923</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.20251364281315</v>
+        <v>11.25264276049313</v>
       </c>
       <c r="C7">
-        <v>5.667971484464295</v>
+        <v>6.832894112983596</v>
       </c>
       <c r="D7">
-        <v>11.29956897887471</v>
+        <v>5.287360005732167</v>
       </c>
       <c r="E7">
-        <v>7.389241070654684</v>
+        <v>7.025992851710436</v>
       </c>
       <c r="F7">
-        <v>61.28186713353931</v>
+        <v>25.05551454138459</v>
       </c>
       <c r="G7">
-        <v>2.186458005653963</v>
+        <v>35.12147496725241</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>3.570893578467613</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.14802796747264</v>
       </c>
       <c r="K7">
-        <v>8.87631196370319</v>
+        <v>20.13108349420573</v>
       </c>
       <c r="L7">
-        <v>6.182875475908821</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.923805816847581</v>
+        <v>9.978032745144521</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.117808844635332</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.854263483740732</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.99588718104822</v>
+        <v>12.35586834074647</v>
       </c>
       <c r="C8">
-        <v>5.984875168717934</v>
+        <v>7.199439933066479</v>
       </c>
       <c r="D8">
-        <v>11.8007839381745</v>
+        <v>5.361347511519913</v>
       </c>
       <c r="E8">
-        <v>7.496124774638621</v>
+        <v>7.275664949229014</v>
       </c>
       <c r="F8">
-        <v>65.44522463346372</v>
+        <v>25.75336502428593</v>
       </c>
       <c r="G8">
-        <v>2.17245834093413</v>
+        <v>36.13476198737929</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>3.256312396827379</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.22082746955907</v>
       </c>
       <c r="K8">
-        <v>9.411744700736282</v>
+        <v>20.2784632027459</v>
       </c>
       <c r="L8">
-        <v>6.255925357556145</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.13979934938541</v>
+        <v>10.80653422519099</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.385300294723308</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.349406226930949</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.55410581185007</v>
+        <v>14.27896148780702</v>
       </c>
       <c r="C9">
-        <v>6.58305276374506</v>
+        <v>7.866915012883044</v>
       </c>
       <c r="D9">
-        <v>12.74886925136492</v>
+        <v>5.496099935310657</v>
       </c>
       <c r="E9">
-        <v>7.718317252399828</v>
+        <v>7.737418894390329</v>
       </c>
       <c r="F9">
-        <v>73.18027317641608</v>
+        <v>27.18303256232901</v>
       </c>
       <c r="G9">
-        <v>2.145982576747568</v>
+        <v>38.21075449795416</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.677497757811781</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.40318765004217</v>
       </c>
       <c r="K9">
-        <v>11.09909042025976</v>
+        <v>20.63201925621524</v>
       </c>
       <c r="L9">
-        <v>6.424956299874685</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.62420785925931</v>
+        <v>12.26947244377755</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.877961651898221</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.2593176423501</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.69431256059725</v>
+        <v>15.54131787192707</v>
       </c>
       <c r="C10">
-        <v>7.012654227071262</v>
+        <v>8.372338455900888</v>
       </c>
       <c r="D10">
-        <v>13.42497315401914</v>
+        <v>5.607517139777485</v>
       </c>
       <c r="E10">
-        <v>7.890122960691858</v>
+        <v>7.953535953083442</v>
       </c>
       <c r="F10">
-        <v>78.59390149490608</v>
+        <v>28.0510023197454</v>
       </c>
       <c r="G10">
-        <v>2.126914438821959</v>
+        <v>39.40377492550419</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.304848450610577</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.48745315150811</v>
       </c>
       <c r="K10">
-        <v>12.25133053650971</v>
+        <v>20.7696874671072</v>
       </c>
       <c r="L10">
-        <v>6.56600967252302</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>11.01857862271933</v>
+        <v>13.26269330309945</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.11642223696861</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.81035279934115</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.29582260588107</v>
+        <v>16.03065160115991</v>
       </c>
       <c r="C11">
-        <v>7.207119335279661</v>
+        <v>9.024631591436755</v>
       </c>
       <c r="D11">
-        <v>13.72856306223781</v>
+        <v>5.848190263618074</v>
       </c>
       <c r="E11">
-        <v>7.970383605035873</v>
+        <v>7.304265250079715</v>
       </c>
       <c r="F11">
-        <v>80.99965195717603</v>
+        <v>26.60829560346028</v>
       </c>
       <c r="G11">
-        <v>2.11826865848693</v>
+        <v>36.69727888052802</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.129886354516912</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.88328020612211</v>
       </c>
       <c r="K11">
-        <v>12.75861728954553</v>
+        <v>19.4417523379258</v>
       </c>
       <c r="L11">
-        <v>6.634126120307136</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.20674613913701</v>
+        <v>13.84790803701393</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.386238228071515</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.40099655664954</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.53172560896627</v>
+        <v>16.18895346025549</v>
       </c>
       <c r="C12">
-        <v>7.280736491715708</v>
+        <v>9.50350042382901</v>
       </c>
       <c r="D12">
-        <v>13.84301146462753</v>
+        <v>6.061630176225862</v>
       </c>
       <c r="E12">
-        <v>8.001103403708729</v>
+        <v>6.980680475364141</v>
       </c>
       <c r="F12">
-        <v>81.90276899764892</v>
+        <v>25.18492632500801</v>
       </c>
       <c r="G12">
-        <v>2.114993585458019</v>
+        <v>34.13003539602303</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.408256932312292</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.35586190708911</v>
       </c>
       <c r="K12">
-        <v>12.94848565801908</v>
+        <v>18.30880583107272</v>
       </c>
       <c r="L12">
-        <v>6.660515278597985</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.27930536667567</v>
+        <v>14.14508636143835</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.796588615326514</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.934549176833048</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.48102020057165</v>
+        <v>16.10746436095763</v>
       </c>
       <c r="C13">
-        <v>7.264880680844374</v>
+        <v>9.882438743283792</v>
       </c>
       <c r="D13">
-        <v>13.81838473413646</v>
+        <v>6.261959326735892</v>
       </c>
       <c r="E13">
-        <v>7.994472376924238</v>
+        <v>6.914634022299097</v>
       </c>
       <c r="F13">
-        <v>81.70861101221885</v>
+        <v>23.66601794144836</v>
       </c>
       <c r="G13">
-        <v>2.115699070183406</v>
+        <v>31.47533816427288</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.7846453244563</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.85515464084001</v>
       </c>
       <c r="K13">
-        <v>12.90768990336024</v>
+        <v>17.2618951237065</v>
       </c>
       <c r="L13">
-        <v>6.654804969339803</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.263619596755</v>
+        <v>14.24679103184976</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.297634251596318</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.386495380935061</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.31527606951524</v>
+        <v>15.94116714509698</v>
       </c>
       <c r="C14">
-        <v>7.213175586090763</v>
+        <v>10.10788856937309</v>
       </c>
       <c r="D14">
-        <v>13.73798872167805</v>
+        <v>6.397954017573575</v>
       </c>
       <c r="E14">
-        <v>7.972904236971255</v>
+        <v>7.028198777634047</v>
       </c>
       <c r="F14">
-        <v>81.07410777329359</v>
+        <v>22.55485505989137</v>
       </c>
       <c r="G14">
-        <v>2.11799927056164</v>
+        <v>29.57480007574996</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.775221632924171</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.52090575958702</v>
       </c>
       <c r="K14">
-        <v>12.77428135772677</v>
+        <v>16.58319112202349</v>
       </c>
       <c r="L14">
-        <v>6.63628508038598</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.21268919494409</v>
+        <v>14.23136931187521</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.02017880972764</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.961700641545086</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.21345535820449</v>
+        <v>15.8484166979368</v>
       </c>
       <c r="C15">
-        <v>7.181505534886423</v>
+        <v>10.13823476909635</v>
       </c>
       <c r="D15">
-        <v>13.68867883773438</v>
+        <v>6.423805605219966</v>
       </c>
       <c r="E15">
-        <v>7.959736483699936</v>
+        <v>7.069351362749961</v>
       </c>
       <c r="F15">
-        <v>80.68444041561598</v>
+        <v>22.26644322392547</v>
       </c>
       <c r="G15">
-        <v>2.119407900260255</v>
+        <v>29.09790657089267</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.008905369265868</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.44591096069492</v>
       </c>
       <c r="K15">
-        <v>12.69228058529226</v>
+        <v>16.43609847981433</v>
       </c>
       <c r="L15">
-        <v>6.625019458304822</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.1816642212935</v>
+        <v>14.1850854383938</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.961920629894924</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.840810243390635</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.66047701942247</v>
+        <v>15.34449660493051</v>
       </c>
       <c r="C16">
-        <v>6.999935602327118</v>
+        <v>9.869208801199042</v>
       </c>
       <c r="D16">
-        <v>13.40505733681712</v>
+        <v>6.331410676018525</v>
       </c>
       <c r="E16">
-        <v>7.8849220633683</v>
+        <v>6.97368091329867</v>
       </c>
       <c r="F16">
-        <v>78.43555640131338</v>
+        <v>22.14895756645855</v>
       </c>
       <c r="G16">
-        <v>2.127479604274326</v>
+        <v>29.0374514284133</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.839345673779511</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.50897262014638</v>
       </c>
       <c r="K16">
-        <v>12.21785485401873</v>
+        <v>16.58939923692125</v>
       </c>
       <c r="L16">
-        <v>6.561639804140558</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.00646128965788</v>
+        <v>13.76544612192225</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.943793385262143</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.695230568734859</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.36380049076682</v>
+        <v>15.04196919497277</v>
       </c>
       <c r="C17">
-        <v>6.888378679393028</v>
+        <v>9.532571697178243</v>
       </c>
       <c r="D17">
-        <v>13.23008192646772</v>
+        <v>6.185535088211233</v>
       </c>
       <c r="E17">
-        <v>7.839580861747601</v>
+        <v>6.811212042929736</v>
       </c>
       <c r="F17">
-        <v>77.04152064630966</v>
+        <v>22.66313512978604</v>
       </c>
       <c r="G17">
-        <v>2.132435125104255</v>
+        <v>30.01882445256949</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.159076604727337</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.73389072010448</v>
       </c>
       <c r="K17">
-        <v>11.92262065769869</v>
+        <v>17.06029946967744</v>
       </c>
       <c r="L17">
-        <v>6.52378818030593</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.90125257141439</v>
+        <v>13.44484409513814</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.063675686468337</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.815385441658169</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.19302965335864</v>
+        <v>14.88666770652059</v>
       </c>
       <c r="C18">
-        <v>6.824115537756703</v>
+        <v>9.112766503998165</v>
       </c>
       <c r="D18">
-        <v>13.12906227798891</v>
+        <v>5.990136464894254</v>
       </c>
       <c r="E18">
-        <v>7.813698289753377</v>
+        <v>6.728632549673039</v>
       </c>
       <c r="F18">
-        <v>76.23432180701353</v>
+        <v>23.7758048486626</v>
       </c>
       <c r="G18">
-        <v>2.135288431431142</v>
+        <v>32.01249149489858</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.003852711274778</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.12881767954837</v>
       </c>
       <c r="K18">
-        <v>11.75120851928104</v>
+        <v>17.88354831237207</v>
       </c>
       <c r="L18">
-        <v>6.502386962868457</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.84156117679483</v>
+        <v>13.18030398488322</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.392926982963475</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.179130570699421</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.13518705464326</v>
+        <v>14.86524368165508</v>
       </c>
       <c r="C19">
-        <v>6.802336971851257</v>
+        <v>8.680050080628485</v>
       </c>
       <c r="D19">
-        <v>13.09479232657999</v>
+        <v>5.789378441254933</v>
       </c>
       <c r="E19">
-        <v>7.804967978960406</v>
+        <v>6.951384046695165</v>
       </c>
       <c r="F19">
-        <v>75.96008642279037</v>
+        <v>25.28511324150419</v>
       </c>
       <c r="G19">
-        <v>2.136255178268549</v>
+        <v>34.68246396284657</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.685438279125129</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.64184255937918</v>
       </c>
       <c r="K19">
-        <v>11.69289070603923</v>
+        <v>18.96922288343157</v>
       </c>
       <c r="L19">
-        <v>6.495203676646076</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.82149071840824</v>
+        <v>12.9872330834138</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.9559214287717</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.708970893476089</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.39539563558113</v>
+        <v>15.21909985945858</v>
       </c>
       <c r="C20">
-        <v>6.900263521144004</v>
+        <v>8.244084356453884</v>
       </c>
       <c r="D20">
-        <v>13.24874716836333</v>
+        <v>5.579387844548846</v>
       </c>
       <c r="E20">
-        <v>7.844387013812266</v>
+        <v>7.892500310371362</v>
       </c>
       <c r="F20">
-        <v>77.19047391921134</v>
+        <v>27.81088098324503</v>
       </c>
       <c r="G20">
-        <v>2.131907324160817</v>
+        <v>39.06926978981762</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.401131335699332</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.46016241332874</v>
       </c>
       <c r="K20">
-        <v>11.95421321862699</v>
+        <v>20.72324611858731</v>
       </c>
       <c r="L20">
-        <v>6.527779071023761</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.91236688050793</v>
+        <v>13.00954972539749</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.05013458550651</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.66482218740929</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.36402082409315</v>
+        <v>16.15318900949553</v>
       </c>
       <c r="C21">
-        <v>7.228362223411589</v>
+        <v>8.548580770970016</v>
       </c>
       <c r="D21">
-        <v>13.76161639871963</v>
+        <v>5.633505796553197</v>
       </c>
       <c r="E21">
-        <v>7.979230237789498</v>
+        <v>8.218200392269598</v>
       </c>
       <c r="F21">
-        <v>81.26068769546498</v>
+        <v>28.81688634300136</v>
       </c>
       <c r="G21">
-        <v>2.117323720694279</v>
+        <v>40.58473845894756</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.075022008974734</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.65015222589909</v>
       </c>
       <c r="K21">
-        <v>12.81352552008045</v>
+        <v>21.09677457248844</v>
       </c>
       <c r="L21">
-        <v>6.641708439890436</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.22761287903973</v>
+        <v>13.71275230495557</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.38545658277684</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.1909266829221</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.04652145112382</v>
+        <v>16.73488844724478</v>
       </c>
       <c r="C22">
-        <v>7.442729742563984</v>
+        <v>8.765918612391486</v>
       </c>
       <c r="D22">
-        <v>14.09384710720622</v>
+        <v>5.677195012227529</v>
       </c>
       <c r="E22">
-        <v>8.069277750595209</v>
+        <v>8.373357390494295</v>
       </c>
       <c r="F22">
-        <v>83.87507842148521</v>
+        <v>29.36870889044538</v>
       </c>
       <c r="G22">
-        <v>2.107783130858371</v>
+        <v>41.38705011229001</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.880115086328908</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.74088112145055</v>
       </c>
       <c r="K22">
-        <v>13.3622465720875</v>
+        <v>21.26536434587556</v>
       </c>
       <c r="L22">
-        <v>6.719651251647389</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.44127685803944</v>
+        <v>14.16354569154421</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.547715355520218</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.48727738832571</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.68342603711845</v>
+        <v>16.42673261726222</v>
       </c>
       <c r="C23">
-        <v>7.328280396024864</v>
+        <v>8.650453563405573</v>
       </c>
       <c r="D23">
-        <v>13.91677640257409</v>
+        <v>5.653994181853625</v>
       </c>
       <c r="E23">
-        <v>8.021032859887352</v>
+        <v>8.290817857753556</v>
       </c>
       <c r="F23">
-        <v>82.48377372589997</v>
+        <v>29.0738398817133</v>
       </c>
       <c r="G23">
-        <v>2.112877880613722</v>
+        <v>40.95829535068285</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.983841029781071</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.69198295110077</v>
       </c>
       <c r="K23">
-        <v>13.07049171910442</v>
+        <v>21.17461369395102</v>
       </c>
       <c r="L23">
-        <v>6.67772298143897</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.32652404957174</v>
+        <v>13.92458420241569</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.46149718209439</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.32990371862324</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.38111211881035</v>
+        <v>15.20866253379816</v>
       </c>
       <c r="C24">
-        <v>6.894890790079179</v>
+        <v>8.20142037194902</v>
       </c>
       <c r="D24">
-        <v>13.24030993706699</v>
+        <v>5.56358053797636</v>
       </c>
       <c r="E24">
-        <v>7.842213578952626</v>
+        <v>7.972214986236699</v>
       </c>
       <c r="F24">
-        <v>77.12315007236796</v>
+        <v>27.9652629615312</v>
       </c>
       <c r="G24">
-        <v>2.13214592915535</v>
+        <v>39.34707216116264</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.383461565415656</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.51706993461547</v>
       </c>
       <c r="K24">
-        <v>11.93993546313217</v>
+        <v>20.84762728393645</v>
       </c>
       <c r="L24">
-        <v>6.525973669405381</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.90733962979947</v>
+        <v>12.98353723862001</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.126638455443496</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.71666613518757</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.13310066005728</v>
+        <v>13.78418665010926</v>
       </c>
       <c r="C25">
-        <v>6.423316632461569</v>
+        <v>7.691938904335838</v>
       </c>
       <c r="D25">
-        <v>12.49608226229568</v>
+        <v>5.460779757164834</v>
       </c>
       <c r="E25">
-        <v>7.656776676329505</v>
+        <v>7.615491092311038</v>
       </c>
       <c r="F25">
-        <v>71.13502619855046</v>
+        <v>26.79035411557074</v>
       </c>
       <c r="G25">
-        <v>2.153060831189439</v>
+        <v>37.64047261424848</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.830169833870335</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.34945363145252</v>
       </c>
       <c r="K25">
-        <v>10.6586247661663</v>
+        <v>20.52920058723449</v>
       </c>
       <c r="L25">
-        <v>6.376355246226291</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.48651787204829</v>
+        <v>11.89113179658904</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.748275857430465</v>
       </c>
       <c r="O25">
+        <v>10.02022833128983</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.63843268455679</v>
+        <v>12.59005851469023</v>
       </c>
       <c r="C2">
-        <v>7.295323676361192</v>
+        <v>7.402638282952154</v>
       </c>
       <c r="D2">
-        <v>5.380704861654295</v>
+        <v>5.369118178800682</v>
       </c>
       <c r="E2">
-        <v>7.341433295666475</v>
+        <v>7.180230780315906</v>
       </c>
       <c r="F2">
-        <v>25.9468173385768</v>
+        <v>24.06083820251492</v>
       </c>
       <c r="G2">
-        <v>36.41563824537115</v>
+        <v>32.85260190621809</v>
       </c>
       <c r="H2">
-        <v>3.173711455977975</v>
+        <v>2.96862244760506</v>
       </c>
       <c r="J2">
-        <v>12.24317368304938</v>
+        <v>11.68503809130132</v>
       </c>
       <c r="K2">
-        <v>20.32266781797283</v>
+        <v>18.61649621917843</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.80627899602315</v>
       </c>
       <c r="M2">
-        <v>11.02011897094669</v>
+        <v>12.79275418813627</v>
       </c>
       <c r="N2">
-        <v>6.455687066506682</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.479635336600161</v>
+        <v>11.22820216867565</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.672336666660357</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.430540234368772</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.80063146084773</v>
+        <v>11.7880414142322</v>
       </c>
       <c r="C3">
-        <v>7.013370366811444</v>
+        <v>7.008180978219953</v>
       </c>
       <c r="D3">
-        <v>5.3237869900537</v>
+        <v>5.272419488152772</v>
       </c>
       <c r="E3">
-        <v>7.148578568004492</v>
+        <v>7.021596110044165</v>
       </c>
       <c r="F3">
-        <v>25.3905698025967</v>
+        <v>23.66018924874308</v>
       </c>
       <c r="G3">
-        <v>35.60800372421125</v>
+        <v>32.38537256556417</v>
       </c>
       <c r="H3">
-        <v>3.416204797208795</v>
+        <v>3.185204309632129</v>
       </c>
       <c r="J3">
-        <v>12.18132694240045</v>
+        <v>11.62769506179202</v>
       </c>
       <c r="K3">
-        <v>20.19929287493463</v>
+        <v>18.60861373675927</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.88173415814549</v>
       </c>
       <c r="M3">
-        <v>10.3884281390284</v>
+        <v>12.7265355616495</v>
       </c>
       <c r="N3">
-        <v>6.249175916334119</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.097444184995931</v>
+        <v>10.58795932716721</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.477978693369242</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.04590577471158</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.25571022899905</v>
+        <v>11.26652177203762</v>
       </c>
       <c r="C4">
-        <v>6.833895328170948</v>
+        <v>6.75590610826005</v>
       </c>
       <c r="D4">
-        <v>5.287562081665902</v>
+        <v>5.21159265502205</v>
       </c>
       <c r="E4">
-        <v>7.026671076490105</v>
+        <v>6.921300042419352</v>
       </c>
       <c r="F4">
-        <v>25.05732545588602</v>
+        <v>23.42210913995417</v>
       </c>
       <c r="G4">
-        <v>35.1241047817764</v>
+        <v>32.11569581386864</v>
       </c>
       <c r="H4">
-        <v>3.570036238895806</v>
+        <v>3.322704881630064</v>
       </c>
       <c r="J4">
-        <v>12.14819874767342</v>
+        <v>11.59446818268815</v>
       </c>
       <c r="K4">
-        <v>20.13143802120734</v>
+        <v>18.60991594803772</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.92888224357824</v>
       </c>
       <c r="M4">
-        <v>9.980323318801339</v>
+        <v>12.70677183144189</v>
       </c>
       <c r="N4">
-        <v>6.118535635322949</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.855608678432818</v>
+        <v>10.17444630061116</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.355492307839966</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.802065110612812</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.0259429445347</v>
+        <v>11.04667376515031</v>
       </c>
       <c r="C5">
-        <v>6.759187958965263</v>
+        <v>6.650632831221041</v>
       </c>
       <c r="D5">
-        <v>5.272483882933409</v>
+        <v>5.186455794819373</v>
       </c>
       <c r="E5">
-        <v>6.976119988772584</v>
+        <v>6.87970169256034</v>
       </c>
       <c r="F5">
-        <v>24.9237152072558</v>
+        <v>23.32710678235289</v>
       </c>
       <c r="G5">
-        <v>34.93006718977959</v>
+        <v>32.01006079702901</v>
       </c>
       <c r="H5">
-        <v>3.633989367218151</v>
+        <v>3.379892445003262</v>
       </c>
       <c r="J5">
-        <v>12.13589080564432</v>
+        <v>11.58141704145427</v>
       </c>
       <c r="K5">
-        <v>20.10572894477154</v>
+        <v>18.61193771434272</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.94830001373976</v>
       </c>
       <c r="M5">
-        <v>9.808968639334068</v>
+        <v>12.70391815373703</v>
       </c>
       <c r="N5">
-        <v>6.064369794788522</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.755367860200627</v>
+        <v>10.00086586941882</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.304827082757364</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.700880251463202</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.98732374160244</v>
+        <v>11.00972553555861</v>
       </c>
       <c r="C6">
-        <v>6.746688987032552</v>
+        <v>6.633005343042102</v>
       </c>
       <c r="D6">
-        <v>5.269961204839797</v>
+        <v>5.182261218080117</v>
       </c>
       <c r="E6">
-        <v>6.967673511585135</v>
+        <v>6.872750461014234</v>
       </c>
       <c r="F6">
-        <v>24.90166453127302</v>
+        <v>23.31145419874775</v>
       </c>
       <c r="G6">
-        <v>34.89804192970975</v>
+        <v>31.99277534627318</v>
       </c>
       <c r="H6">
-        <v>3.644685842407958</v>
+        <v>3.389458689988171</v>
       </c>
       <c r="J6">
-        <v>12.13391828710796</v>
+        <v>11.5792791731107</v>
       </c>
       <c r="K6">
-        <v>20.10157597174556</v>
+        <v>18.61236194071619</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.95153664108622</v>
       </c>
       <c r="M6">
-        <v>9.780211923281302</v>
+        <v>12.70375636295293</v>
       </c>
       <c r="N6">
-        <v>6.055320665312657</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.738624374026923</v>
+        <v>9.971738815807555</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.296370070717544</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.683972349064154</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.25264276049313</v>
+        <v>11.26487504230576</v>
       </c>
       <c r="C7">
-        <v>6.832894112983596</v>
+        <v>6.74823037438224</v>
       </c>
       <c r="D7">
-        <v>5.287360005732167</v>
+        <v>5.213860802295208</v>
       </c>
       <c r="E7">
-        <v>7.025992851710436</v>
+        <v>6.921135516279275</v>
       </c>
       <c r="F7">
-        <v>25.05551454138459</v>
+        <v>23.39414947555885</v>
       </c>
       <c r="G7">
-        <v>35.12147496725241</v>
+        <v>32.16959123964941</v>
       </c>
       <c r="H7">
-        <v>3.570893578467613</v>
+        <v>3.324161559434073</v>
       </c>
       <c r="J7">
-        <v>12.14802796747264</v>
+        <v>11.54786983075018</v>
       </c>
       <c r="K7">
-        <v>20.13108349420573</v>
+        <v>18.59482515973861</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.91601013682486</v>
       </c>
       <c r="M7">
-        <v>9.978032745144521</v>
+        <v>12.6969560115237</v>
       </c>
       <c r="N7">
-        <v>6.117808844635332</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.854263483740732</v>
+        <v>10.17016423088847</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.353960556629643</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.800990922677697</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.35586834074647</v>
+        <v>12.32351414141295</v>
       </c>
       <c r="C8">
-        <v>7.199439933066479</v>
+        <v>7.248998175015157</v>
       </c>
       <c r="D8">
-        <v>5.361347511519913</v>
+        <v>5.345043745298037</v>
       </c>
       <c r="E8">
-        <v>7.275664949229014</v>
+        <v>7.127544806625062</v>
       </c>
       <c r="F8">
-        <v>25.75336502428593</v>
+        <v>23.83503425909747</v>
       </c>
       <c r="G8">
-        <v>36.13476198737929</v>
+        <v>32.86947566431862</v>
       </c>
       <c r="H8">
-        <v>3.256312396827379</v>
+        <v>3.044501587874588</v>
       </c>
       <c r="J8">
-        <v>12.22082746955907</v>
+        <v>11.5138158192194</v>
       </c>
       <c r="K8">
-        <v>20.2784632027459</v>
+        <v>18.56327261985908</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.79156833306295</v>
       </c>
       <c r="M8">
-        <v>10.80653422519099</v>
+        <v>12.73129687739507</v>
       </c>
       <c r="N8">
-        <v>6.385300294723308</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.349406226930949</v>
+        <v>11.00567161302599</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.603333926907625</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.300427697647525</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27896148780702</v>
+        <v>14.16488547967319</v>
       </c>
       <c r="C9">
-        <v>7.866915012883044</v>
+        <v>8.17207053033327</v>
       </c>
       <c r="D9">
-        <v>5.496099935310657</v>
+        <v>5.580445481219385</v>
       </c>
       <c r="E9">
-        <v>7.737418894390329</v>
+        <v>7.507893997807036</v>
       </c>
       <c r="F9">
-        <v>27.18303256232901</v>
+        <v>24.85954448332797</v>
       </c>
       <c r="G9">
-        <v>38.21075449795416</v>
+        <v>34.17567423417857</v>
       </c>
       <c r="H9">
-        <v>2.677497757811781</v>
+        <v>2.528553797535692</v>
       </c>
       <c r="J9">
-        <v>12.40318765004217</v>
+        <v>11.63059043711587</v>
       </c>
       <c r="K9">
-        <v>20.63201925621524</v>
+        <v>18.60770153359192</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.60201584023155</v>
       </c>
       <c r="M9">
-        <v>12.26947244377755</v>
+        <v>13.00158551292192</v>
       </c>
       <c r="N9">
-        <v>6.877961651898221</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.2593176423501</v>
+        <v>12.48760984862031</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.068877419810327</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.21371129454347</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.54131787192707</v>
+        <v>15.38230472763603</v>
       </c>
       <c r="C10">
-        <v>8.372338455900888</v>
+        <v>8.812849341696289</v>
       </c>
       <c r="D10">
-        <v>5.607517139777485</v>
+        <v>5.783536056812235</v>
       </c>
       <c r="E10">
-        <v>7.953535953083442</v>
+        <v>7.681583153325357</v>
       </c>
       <c r="F10">
-        <v>28.0510023197454</v>
+        <v>25.33317886624131</v>
       </c>
       <c r="G10">
-        <v>39.40377492550419</v>
+        <v>35.20891250533646</v>
       </c>
       <c r="H10">
-        <v>2.304848450610577</v>
+        <v>2.20282322155131</v>
       </c>
       <c r="J10">
-        <v>12.48745315150811</v>
+        <v>11.41749873922131</v>
       </c>
       <c r="K10">
-        <v>20.7696874671072</v>
+        <v>18.46566024136646</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.31369499987541</v>
       </c>
       <c r="M10">
-        <v>13.26269330309945</v>
+        <v>13.13731475923253</v>
       </c>
       <c r="N10">
-        <v>7.11642223696861</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.81035279934115</v>
+        <v>13.48172345133138</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.285614067882941</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.76627492173585</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.03065160115991</v>
+        <v>15.89650285236488</v>
       </c>
       <c r="C11">
-        <v>9.024631591436755</v>
+        <v>9.430860210187774</v>
       </c>
       <c r="D11">
-        <v>5.848190263618074</v>
+        <v>6.116988427885475</v>
       </c>
       <c r="E11">
-        <v>7.304265250079715</v>
+        <v>7.115487901883892</v>
       </c>
       <c r="F11">
-        <v>26.60829560346028</v>
+        <v>23.79732665386299</v>
       </c>
       <c r="G11">
-        <v>36.69727888052802</v>
+        <v>33.4927551180798</v>
       </c>
       <c r="H11">
-        <v>3.129886354516912</v>
+        <v>3.067035369572053</v>
       </c>
       <c r="J11">
-        <v>11.88328020612211</v>
+        <v>10.45124851239994</v>
       </c>
       <c r="K11">
-        <v>19.4417523379258</v>
+        <v>17.20081528847153</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.32505485349402</v>
       </c>
       <c r="M11">
-        <v>13.84790803701393</v>
+        <v>12.24531983007718</v>
       </c>
       <c r="N11">
-        <v>6.386238228071515</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.40099655664954</v>
+        <v>14.03140360279787</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.532331297703571</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.36224199247903</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.18895346025549</v>
+        <v>16.08170815425835</v>
       </c>
       <c r="C12">
-        <v>9.50350042382901</v>
+        <v>9.852989866719815</v>
       </c>
       <c r="D12">
-        <v>6.061630176225862</v>
+        <v>6.371646504769942</v>
       </c>
       <c r="E12">
-        <v>6.980680475364141</v>
+        <v>6.865038171222497</v>
       </c>
       <c r="F12">
-        <v>25.18492632500801</v>
+        <v>22.46940563796349</v>
       </c>
       <c r="G12">
-        <v>34.13003539602303</v>
+        <v>31.59824693912767</v>
       </c>
       <c r="H12">
-        <v>4.408256932312292</v>
+        <v>4.36442170278971</v>
       </c>
       <c r="J12">
-        <v>11.35586190708911</v>
+        <v>9.87819927415222</v>
       </c>
       <c r="K12">
-        <v>18.30880583107272</v>
+        <v>16.24528292363488</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.63371334732718</v>
       </c>
       <c r="M12">
-        <v>14.14508636143835</v>
+        <v>11.50423770842591</v>
       </c>
       <c r="N12">
-        <v>5.796588615326514</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.934549176833048</v>
+        <v>14.30247281389619</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.929360866667132</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.8995283194715</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.10746436095763</v>
+        <v>16.02819847923022</v>
       </c>
       <c r="C13">
-        <v>9.882438743283792</v>
+        <v>10.17434502660918</v>
       </c>
       <c r="D13">
-        <v>6.261959326735892</v>
+        <v>6.562715151070014</v>
       </c>
       <c r="E13">
-        <v>6.914634022299097</v>
+        <v>6.866274519944026</v>
       </c>
       <c r="F13">
-        <v>23.66601794144836</v>
+        <v>21.25602885882935</v>
       </c>
       <c r="G13">
-        <v>31.47533816427288</v>
+        <v>29.28947400478226</v>
       </c>
       <c r="H13">
-        <v>5.7846453244563</v>
+        <v>5.746864853114727</v>
       </c>
       <c r="J13">
-        <v>10.85515464084001</v>
+        <v>9.605655189847367</v>
       </c>
       <c r="K13">
-        <v>17.2618951237065</v>
+        <v>15.49449743451484</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.12565884599903</v>
       </c>
       <c r="M13">
-        <v>14.24679103184976</v>
+        <v>10.866908394094</v>
       </c>
       <c r="N13">
-        <v>5.297634251596318</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.386495380935061</v>
+        <v>14.38668161168694</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.425561755849107</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.353433415677296</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.94116714509698</v>
+        <v>15.88230525072156</v>
       </c>
       <c r="C14">
-        <v>10.10788856937309</v>
+        <v>10.35894862513247</v>
       </c>
       <c r="D14">
-        <v>6.397954017573575</v>
+        <v>6.667240296277104</v>
       </c>
       <c r="E14">
-        <v>7.028198777634047</v>
+        <v>7.021343424769029</v>
       </c>
       <c r="F14">
-        <v>22.55485505989137</v>
+        <v>20.44941231101109</v>
       </c>
       <c r="G14">
-        <v>29.57480007574996</v>
+        <v>27.49688792949023</v>
       </c>
       <c r="H14">
-        <v>6.775221632924171</v>
+        <v>6.738366810952868</v>
       </c>
       <c r="J14">
-        <v>10.52090575958702</v>
+        <v>9.525467558996144</v>
       </c>
       <c r="K14">
-        <v>16.58319112202349</v>
+        <v>15.06379154000867</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.84617605439925</v>
       </c>
       <c r="M14">
-        <v>14.23136931187521</v>
+        <v>10.476304035214</v>
       </c>
       <c r="N14">
-        <v>5.02017880972764</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.961700641545086</v>
+        <v>14.36237412355931</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.148217142061936</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.928989711033001</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.8484166979368</v>
+        <v>15.79500541483248</v>
       </c>
       <c r="C15">
-        <v>10.13823476909635</v>
+        <v>10.38077206728298</v>
       </c>
       <c r="D15">
-        <v>6.423805605219966</v>
+        <v>6.675958802991566</v>
       </c>
       <c r="E15">
-        <v>7.069351362749961</v>
+        <v>7.073051665420822</v>
       </c>
       <c r="F15">
-        <v>22.26644322392547</v>
+        <v>20.27317578562097</v>
       </c>
       <c r="G15">
-        <v>29.09790657089267</v>
+        <v>26.99295366772153</v>
       </c>
       <c r="H15">
-        <v>7.008905369265868</v>
+        <v>6.971147708568201</v>
       </c>
       <c r="J15">
-        <v>10.44591096069492</v>
+        <v>9.550778086030876</v>
       </c>
       <c r="K15">
-        <v>16.43609847981433</v>
+        <v>14.99356373791959</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.80428363221401</v>
       </c>
       <c r="M15">
-        <v>14.1850854383938</v>
+        <v>10.4023588543253</v>
       </c>
       <c r="N15">
-        <v>4.961920629894924</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.840810243390635</v>
+        <v>14.31560378729959</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.091735468175817</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.807741311866433</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.34449660493051</v>
+        <v>15.29654243565294</v>
       </c>
       <c r="C16">
-        <v>9.869208801199042</v>
+        <v>10.1236008180256</v>
       </c>
       <c r="D16">
-        <v>6.331410676018525</v>
+        <v>6.508771342551927</v>
       </c>
       <c r="E16">
-        <v>6.97368091329867</v>
+        <v>6.991630300293453</v>
       </c>
       <c r="F16">
-        <v>22.14895756645855</v>
+        <v>20.47074404845258</v>
       </c>
       <c r="G16">
-        <v>29.0374514284133</v>
+        <v>26.50904077093059</v>
       </c>
       <c r="H16">
-        <v>6.839345673779511</v>
+        <v>6.789796941777892</v>
       </c>
       <c r="J16">
-        <v>10.50897262014638</v>
+        <v>9.958431191578047</v>
       </c>
       <c r="K16">
-        <v>16.58939923692125</v>
+        <v>15.29266281165612</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.03667486417244</v>
       </c>
       <c r="M16">
-        <v>13.76544612192225</v>
+        <v>10.5798549748981</v>
       </c>
       <c r="N16">
-        <v>4.943793385262143</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.695230568734859</v>
+        <v>13.91116151824943</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.091050064018565</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.658450216828587</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.04196919497277</v>
+        <v>14.98861782564235</v>
       </c>
       <c r="C17">
-        <v>9.532571697178243</v>
+        <v>9.808309895630908</v>
       </c>
       <c r="D17">
-        <v>6.185535088211233</v>
+        <v>6.33159747256789</v>
       </c>
       <c r="E17">
-        <v>6.811212042929736</v>
+        <v>6.815806043454445</v>
       </c>
       <c r="F17">
-        <v>22.66313512978604</v>
+        <v>21.0312147183617</v>
       </c>
       <c r="G17">
-        <v>30.01882445256949</v>
+        <v>27.17450051581571</v>
       </c>
       <c r="H17">
-        <v>6.159076604727337</v>
+        <v>6.097493896977114</v>
       </c>
       <c r="J17">
-        <v>10.73389072010448</v>
+        <v>10.29578319226673</v>
       </c>
       <c r="K17">
-        <v>17.06029946967744</v>
+        <v>15.74017916662762</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.37153978857211</v>
       </c>
       <c r="M17">
-        <v>13.44484409513814</v>
+        <v>10.90389012122337</v>
       </c>
       <c r="N17">
-        <v>5.063675686468337</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.815385441658169</v>
+        <v>13.60514234384149</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.223885895939203</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.776115380873906</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.88666770652059</v>
+        <v>14.81551132361048</v>
       </c>
       <c r="C18">
-        <v>9.112766503998165</v>
+        <v>9.427007865042981</v>
       </c>
       <c r="D18">
-        <v>5.990136464894254</v>
+        <v>6.125756778071158</v>
       </c>
       <c r="E18">
-        <v>6.728632549673039</v>
+        <v>6.686156770717099</v>
       </c>
       <c r="F18">
-        <v>23.7758048486626</v>
+        <v>22.01563462130625</v>
       </c>
       <c r="G18">
-        <v>32.01249149489858</v>
+        <v>28.78129256850607</v>
       </c>
       <c r="H18">
-        <v>5.003852711274778</v>
+        <v>4.925952191432917</v>
       </c>
       <c r="J18">
-        <v>11.12881767954837</v>
+        <v>10.68018062158763</v>
       </c>
       <c r="K18">
-        <v>17.88354831237207</v>
+        <v>16.41530242000817</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.87501544404286</v>
       </c>
       <c r="M18">
-        <v>13.18030398488322</v>
+        <v>11.41837912219194</v>
       </c>
       <c r="N18">
-        <v>5.392926982963475</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.179130570699421</v>
+        <v>13.35900883712379</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.563292047025007</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.137892520177195</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.86524368165508</v>
+        <v>14.76676795665602</v>
       </c>
       <c r="C19">
-        <v>8.680050080628485</v>
+        <v>9.039227174274698</v>
       </c>
       <c r="D19">
-        <v>5.789378441254933</v>
+        <v>5.921397752302758</v>
       </c>
       <c r="E19">
-        <v>6.951384046695165</v>
+        <v>6.829195523466026</v>
       </c>
       <c r="F19">
-        <v>25.28511324150419</v>
+        <v>23.28589287428919</v>
       </c>
       <c r="G19">
-        <v>34.68246396284657</v>
+        <v>30.98760513919181</v>
       </c>
       <c r="H19">
-        <v>3.685438279125129</v>
+        <v>3.584741923778882</v>
       </c>
       <c r="J19">
-        <v>11.64184255937918</v>
+        <v>11.10976329435647</v>
       </c>
       <c r="K19">
-        <v>18.96922288343157</v>
+        <v>17.26594739038971</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.50879856199142</v>
       </c>
       <c r="M19">
-        <v>12.9872330834138</v>
+        <v>12.07807071122386</v>
       </c>
       <c r="N19">
-        <v>5.9559214287717</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.708970893476089</v>
+        <v>13.1864086806595</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.132837313841279</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.665987064669936</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.21909985945858</v>
+        <v>15.06824027922437</v>
       </c>
       <c r="C20">
-        <v>8.244084356453884</v>
+        <v>8.668966292086932</v>
       </c>
       <c r="D20">
-        <v>5.579387844548846</v>
+        <v>5.721239769399947</v>
       </c>
       <c r="E20">
-        <v>7.892500310371362</v>
+        <v>7.630437159171589</v>
       </c>
       <c r="F20">
-        <v>27.81088098324503</v>
+        <v>25.28309768787647</v>
       </c>
       <c r="G20">
-        <v>39.06926978981762</v>
+        <v>34.72990903540413</v>
       </c>
       <c r="H20">
-        <v>2.401131335699332</v>
+        <v>2.284875772473062</v>
       </c>
       <c r="J20">
-        <v>12.46016241332874</v>
+        <v>11.6236709703159</v>
       </c>
       <c r="K20">
-        <v>20.72324611858731</v>
+        <v>18.54521133909241</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.42080731739337</v>
       </c>
       <c r="M20">
-        <v>13.00954972539749</v>
+        <v>13.13103090681218</v>
       </c>
       <c r="N20">
-        <v>7.05013458550651</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.66482218740929</v>
+        <v>13.2337845586698</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.227338247708663</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.6197881510352</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.15318900949553</v>
+        <v>15.98122713343439</v>
       </c>
       <c r="C21">
-        <v>8.548580770970016</v>
+        <v>8.980973159153226</v>
       </c>
       <c r="D21">
-        <v>5.633505796553197</v>
+        <v>5.895878719259646</v>
       </c>
       <c r="E21">
-        <v>8.218200392269598</v>
+        <v>7.91690217045821</v>
       </c>
       <c r="F21">
-        <v>28.81688634300136</v>
+        <v>25.48804845287347</v>
       </c>
       <c r="G21">
-        <v>40.58473845894756</v>
+        <v>37.02690363103817</v>
       </c>
       <c r="H21">
-        <v>2.075022008974734</v>
+        <v>2.005066960597845</v>
       </c>
       <c r="J21">
-        <v>12.65015222589909</v>
+        <v>10.77775181789085</v>
       </c>
       <c r="K21">
-        <v>21.09677457248844</v>
+        <v>18.37859889313661</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.15710289196649</v>
       </c>
       <c r="M21">
-        <v>13.71275230495557</v>
+        <v>13.20675257904893</v>
       </c>
       <c r="N21">
-        <v>7.38545658277684</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.1909266829221</v>
+        <v>13.91318175371481</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.535310160452957</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.14935979686833</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.73488844724478</v>
+        <v>16.55280714267456</v>
       </c>
       <c r="C22">
-        <v>8.765918612391486</v>
+        <v>9.195542792204932</v>
       </c>
       <c r="D22">
-        <v>5.677195012227529</v>
+        <v>6.025883568576669</v>
       </c>
       <c r="E22">
-        <v>8.373357390494295</v>
+        <v>8.05520065803409</v>
       </c>
       <c r="F22">
-        <v>29.36870889044538</v>
+        <v>25.50957564631203</v>
       </c>
       <c r="G22">
-        <v>41.38705011229001</v>
+        <v>38.46077140783144</v>
       </c>
       <c r="H22">
-        <v>1.880115086328908</v>
+        <v>1.839514524180642</v>
       </c>
       <c r="J22">
-        <v>12.74088112145055</v>
+        <v>10.18825606181318</v>
       </c>
       <c r="K22">
-        <v>21.26536434587556</v>
+        <v>18.19158850561922</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.93031558262523</v>
       </c>
       <c r="M22">
-        <v>14.16354569154421</v>
+        <v>13.20192797181098</v>
       </c>
       <c r="N22">
-        <v>7.547715355520218</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.48727738832571</v>
+        <v>14.34615272223816</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.67946009825724</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.44770970815578</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.42673261726222</v>
+        <v>16.24744943980584</v>
       </c>
       <c r="C23">
-        <v>8.650453563405573</v>
+        <v>9.094362164435452</v>
       </c>
       <c r="D23">
-        <v>5.653994181853625</v>
+        <v>5.948509561475636</v>
       </c>
       <c r="E23">
-        <v>8.290817857753556</v>
+        <v>7.979870932458967</v>
       </c>
       <c r="F23">
-        <v>29.0738398817133</v>
+        <v>25.5590809435607</v>
       </c>
       <c r="G23">
-        <v>40.95829535068285</v>
+        <v>37.55415993077617</v>
       </c>
       <c r="H23">
-        <v>1.983841029781071</v>
+        <v>1.926471913511419</v>
       </c>
       <c r="J23">
-        <v>12.69198295110077</v>
+        <v>10.59788126469464</v>
       </c>
       <c r="K23">
-        <v>21.17461369395102</v>
+        <v>18.32789637492304</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.07677314937833</v>
       </c>
       <c r="M23">
-        <v>13.92458420241569</v>
+        <v>13.23335060295146</v>
       </c>
       <c r="N23">
-        <v>7.46149718209439</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.32990371862324</v>
+        <v>14.12035425173205</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.604530373150793</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.28883518163588</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.20866253379816</v>
+        <v>15.05510603810487</v>
       </c>
       <c r="C24">
-        <v>8.20142037194902</v>
+        <v>8.627184856906798</v>
       </c>
       <c r="D24">
-        <v>5.56358053797636</v>
+        <v>5.701836692126191</v>
       </c>
       <c r="E24">
-        <v>7.972214986236699</v>
+        <v>7.70163975963849</v>
       </c>
       <c r="F24">
-        <v>27.9652629615312</v>
+        <v>25.41708353412011</v>
       </c>
       <c r="G24">
-        <v>39.34707216116264</v>
+        <v>34.95375105543656</v>
       </c>
       <c r="H24">
-        <v>2.383461565415656</v>
+        <v>2.267233813729051</v>
       </c>
       <c r="J24">
-        <v>12.51706993461547</v>
+        <v>11.67760678579512</v>
       </c>
       <c r="K24">
-        <v>20.84762728393645</v>
+        <v>18.64671788174845</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.49845415231563</v>
       </c>
       <c r="M24">
-        <v>12.98353723862001</v>
+        <v>13.20698713332881</v>
       </c>
       <c r="N24">
-        <v>7.126638455443496</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.71666613518757</v>
+        <v>13.20978794408474</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.304699895256579</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.67135551505337</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.78418665010926</v>
+        <v>13.68966657165565</v>
       </c>
       <c r="C25">
-        <v>7.691938904335838</v>
+        <v>7.939271315701085</v>
       </c>
       <c r="D25">
-        <v>5.460779757164834</v>
+        <v>5.514220887039533</v>
       </c>
       <c r="E25">
-        <v>7.615491092311038</v>
+        <v>7.40679888414624</v>
       </c>
       <c r="F25">
-        <v>26.79035411557074</v>
+        <v>24.61132514768078</v>
       </c>
       <c r="G25">
-        <v>37.64047261424848</v>
+        <v>33.73122956946445</v>
       </c>
       <c r="H25">
-        <v>2.830169833870335</v>
+        <v>2.663680543467357</v>
       </c>
       <c r="J25">
-        <v>12.34945363145252</v>
+        <v>11.66050492361837</v>
       </c>
       <c r="K25">
-        <v>20.52920058723449</v>
+        <v>18.6104639787806</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.66858224139551</v>
       </c>
       <c r="M25">
-        <v>11.89113179658904</v>
+        <v>12.92584994595656</v>
       </c>
       <c r="N25">
-        <v>6.748275857430465</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.02022833128983</v>
+        <v>12.10678518848299</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.947052940902711</v>
       </c>
       <c r="Q25">
+        <v>9.973814329156561</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
